--- a/JGT.xlsx
+++ b/JGT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-110</t>
   </si>
   <si>
     <t>vendredi</t>
@@ -144,10 +150,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -156,7 +164,7 @@
         <v>45918.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -170,15 +178,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -187,7 +197,7 @@
         <v>45919.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -201,15 +211,17 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -245,10 +257,12 @@
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -263,15 +277,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G11" s="0"/>
       <c r="H11" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -288,12 +304,12 @@
         <v>45965.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>3</v>
@@ -302,15 +318,17 @@
         <v>4</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0"/>
     </row>
@@ -327,12 +345,12 @@
         <v>45988.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>3</v>
@@ -346,10 +364,12 @@
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0"/>
     </row>

--- a/JGT.xlsx
+++ b/JGT.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>Télécoms (KINX6AC1)</t>
@@ -32,13 +32,13 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>13:30</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Télécoms (KINX6AC1) /CC</t>
@@ -107,7 +107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -136,7 +136,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44932.0</v>
+        <v>46028.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -186,7 +186,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>8</v>
@@ -223,7 +223,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>1</v>
@@ -252,7 +252,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44939.0</v>
+        <v>46035.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>6</v>
@@ -289,7 +289,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44946.0</v>
+        <v>46042.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>6</v>
@@ -326,7 +326,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>8</v>
@@ -363,7 +363,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>8</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>8</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>1</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>45015.0</v>
+        <v>46111.0</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>1</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>8</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>6</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>1</v>
